--- a/data/income_statement/2digits/size/29_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/29_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>29-Manufacture of motor vehicles, trailers and semi-trailers</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>29-Manufacture of motor vehicles, trailers and semi-trailers</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,848 +841,958 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1433666.83702</v>
+        <v>1549277.69286</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1734453.27508</v>
+        <v>1815164.32978</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2050497.57041</v>
+        <v>2116268.11805</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2073952.16181</v>
+        <v>2168822.04997</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2914029.53979</v>
+        <v>3061358.27395</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3024903.75036</v>
+        <v>3185919.97034</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3099985.96127</v>
+        <v>3270486.07899</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2878469.82888</v>
+        <v>3130251.21493</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3081315.69804</v>
+        <v>3469844.98973</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6049735.477399999</v>
+        <v>6160946.1647</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6350286.04861</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6631662.12912</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>8233623.145</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1142527.62565</v>
+        <v>1232477.42053</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1397229.72219</v>
+        <v>1459206.06832</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1661832.82863</v>
+        <v>1712932.01476</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1677860.5106</v>
+        <v>1754847.08251</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2340442.4119</v>
+        <v>2445459.39596</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2438224.71218</v>
+        <v>2547590.15251</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2580846.01498</v>
+        <v>2702699.61081</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2370635.07754</v>
+        <v>2571027.98189</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2581119.36238</v>
+        <v>2897133.25776</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4725590.11866</v>
+        <v>4816859.933740001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4819027.92418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5016510.84068</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6365191.253</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>274024.93904</v>
+        <v>294236.0019999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>319403.61856</v>
+        <v>334236.00096</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>359778.31144</v>
+        <v>374086.77496</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>369514.7467000001</v>
+        <v>383406.70179</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>540140.0980499999</v>
+        <v>575625.4395900001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>553249.23497</v>
+        <v>599214.4658100001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>487998.25261</v>
+        <v>533236.80769</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>470493.6093</v>
+        <v>516048.9280699999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>459931.72488</v>
+        <v>526937.1822</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1252808.07773</v>
+        <v>1272325.20297</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1439073.96847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1523367.01089</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1744003.425</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>17114.27233</v>
+        <v>22564.27033</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>17819.93433</v>
+        <v>21722.2605</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>28886.43034</v>
+        <v>29249.32833</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>26576.90451</v>
+        <v>30568.26567</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>33447.02984</v>
+        <v>40273.43840000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>33429.80321</v>
+        <v>39115.35202000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>31141.69368</v>
+        <v>34549.66049</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>37341.14204</v>
+        <v>43174.30497</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>40264.61078</v>
+        <v>45774.54977000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>71337.28101000001</v>
+        <v>71761.02799</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>92184.15595999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>91784.27755</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>124428.467</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>22674.43151</v>
+        <v>24358.79573</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>21503.16109</v>
+        <v>22598.7578</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>25063.10973</v>
+        <v>27429.96787</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>26096.4689</v>
+        <v>26817.43275</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>42306.22689</v>
+        <v>51300.55966</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>39172.5659</v>
+        <v>43018.51753000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>40639.85067</v>
+        <v>45140.56355</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>35440.00453</v>
+        <v>38633.37826</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>32640.91343</v>
+        <v>39855.68912</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>105147.50088</v>
+        <v>107617.44052</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>120713.81291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>127792.37993</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>158504.191</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>14599.30917</v>
+        <v>15790.63447</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>15024.9758</v>
+        <v>15823.25547</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>16445.67022</v>
+        <v>18728.41646</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>18291.86592</v>
+        <v>19075.50186</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>24904.74463</v>
+        <v>31595.35347</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>25421.51115</v>
+        <v>27152.28934</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>26511.11558</v>
+        <v>28993.69098</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>25953.64356</v>
+        <v>29327.33186</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>24465.47248</v>
+        <v>29114.76157</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>64323.18033</v>
+        <v>66275.37606</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>83728.36410000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>90113.60453999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>106744.116</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>6628.65429</v>
+        <v>6912.858310000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>4751.53423</v>
+        <v>5057.93266</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>4469.34544</v>
+        <v>4481.01815</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>4732.07671</v>
+        <v>4545.657440000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>11556.16526</v>
+        <v>13123.26327</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>11486.12575</v>
+        <v>13132.11949</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>12760.63937</v>
+        <v>14168.17671</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>7105.707260000001</v>
+        <v>7306.595810000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>6517.131469999999</v>
+        <v>8319.97337</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>32902.15305</v>
+        <v>33213.07629</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>31126.67463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>31815.70436</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>43809.675</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1446.46805</v>
+        <v>1655.30295</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1726.65106</v>
+        <v>1717.56967</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>4148.09407</v>
+        <v>4220.53326</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3072.52627</v>
+        <v>3196.27345</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5845.317</v>
+        <v>6581.94292</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2264.929</v>
+        <v>2734.1087</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1368.09572</v>
+        <v>1978.69586</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2380.65371</v>
+        <v>1999.45059</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1658.30948</v>
+        <v>2420.95418</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>7922.1675</v>
+        <v>8128.988170000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>5858.774179999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5863.07103</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>7950.4</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1410992.40551</v>
+        <v>1524918.89713</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1712950.11399</v>
+        <v>1792565.57198</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2025434.46068</v>
+        <v>2088838.15018</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2047855.69291</v>
+        <v>2142004.61722</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2871723.3129</v>
+        <v>3010057.71429</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2985731.18446</v>
+        <v>3142901.45281</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3059346.1106</v>
+        <v>3225345.51544</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2843029.82435</v>
+        <v>3091617.83667</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3048674.78461</v>
+        <v>3429989.30061</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5944587.97652</v>
+        <v>6053328.72418</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6229572.2357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6503869.749189999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>8075118.954</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1179860.62673</v>
+        <v>1283166.48103</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1454277.63618</v>
+        <v>1516587.63373</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1713818.8311</v>
+        <v>1760969.92446</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1745390.15456</v>
+        <v>1823128.33217</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2431782.5361</v>
+        <v>2541404.164390001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2508241.62053</v>
+        <v>2642755.41596</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2543452.53233</v>
+        <v>2679593.45842</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2353320.91958</v>
+        <v>2553135.9267</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2550472.7935</v>
+        <v>2862038.17182</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4981352.58215</v>
+        <v>5062658.882180001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5191737.243370001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5429559.33761</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6754900.304</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>861627.6247899999</v>
+        <v>956553.4087300001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1102618.66787</v>
+        <v>1160773.27615</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1251670.38337</v>
+        <v>1285731.67347</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1242192.00133</v>
+        <v>1305053.72039</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1796219.4288</v>
+        <v>1893033.21203</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1831056.61479</v>
+        <v>1954189.79083</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1901213.5491</v>
+        <v>2003755.88354</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1753889.21184</v>
+        <v>1916882.41366</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1864012.01078</v>
+        <v>2129277.41051</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3764257.63667</v>
+        <v>3835853.12574</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3931834.97418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4041178.17878</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4777271.032</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>279338.37678</v>
+        <v>287281.62713</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>306432.93576</v>
+        <v>311053.00232</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>383911.39083</v>
+        <v>392200.20252</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>413357.46821</v>
+        <v>421839.10561</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>538414.812</v>
+        <v>551339.8275199999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>581780.4562799999</v>
+        <v>591349.9909</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>534130.6991900001</v>
+        <v>564181.01901</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>496312.45596</v>
+        <v>528677.00187</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>583119.52243</v>
+        <v>615534.6672799999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1023722.83087</v>
+        <v>1034342.99463</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1112096.54401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1212929.50708</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1728482.394</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>36288.85916</v>
+        <v>35435.698</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>41406.71682</v>
+        <v>40787.33427</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>74982.37220999999</v>
+        <v>79747.61784000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>85424.20447</v>
+        <v>91784.02193</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>92989.91106</v>
+        <v>92491.53546000001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>89015.01312</v>
+        <v>89746.60141000002</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>98599.52102000001</v>
+        <v>101847.23406</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>93072.90677</v>
+        <v>96010.51027</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>95283.64429</v>
+        <v>107473.2198</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>162584.19765</v>
+        <v>160706.35472</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>120970.6007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>150616.20368</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>235035.155</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2605.766</v>
+        <v>3895.74717</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3819.31573</v>
+        <v>3974.02099</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>3254.68469</v>
+        <v>3290.43063</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>4416.48055</v>
+        <v>4451.48424</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>4158.38424</v>
+        <v>4539.589379999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>6389.53634</v>
+        <v>7469.032819999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>9508.76302</v>
+        <v>9809.321810000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>10046.34501</v>
+        <v>11566.0009</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>8057.616</v>
+        <v>9752.874230000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>30787.91696</v>
+        <v>31756.40709</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>26835.12448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>24835.44807</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>14111.723</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>231131.77878</v>
+        <v>241752.4161</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>258672.47781</v>
+        <v>275977.93825</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>311615.62958</v>
+        <v>327868.22572</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>302465.53835</v>
+        <v>318876.28505</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>439940.7768</v>
+        <v>468653.5499</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>477489.5639299999</v>
+        <v>500146.03685</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>515893.57827</v>
+        <v>545752.0570199999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>489708.90477</v>
+        <v>538481.90997</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>498201.99111</v>
+        <v>567951.1287900001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>963235.39437</v>
+        <v>990669.8419999999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1037834.99233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1074310.41158</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1320218.65</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>156122.74082</v>
+        <v>179738.46668</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>165401.8493</v>
+        <v>183120.17686</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>195237.85091</v>
+        <v>201262.36557</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>206622.41224</v>
+        <v>225768.1929</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>290408.91302</v>
+        <v>305251.90678</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>309825.82139</v>
+        <v>323219.51595</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>319108.8779</v>
+        <v>335963.77175</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>323773.54384</v>
+        <v>342993.89867</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>319829.81752</v>
+        <v>346515.09353</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>533938.1491599999</v>
+        <v>552272.5447</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>608581.47807</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>622581.08761</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>677936.468</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2100.65002</v>
+        <v>2584.62392</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>504.2466700000001</v>
+        <v>1026.38855</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>713.38964</v>
+        <v>738.02845</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1635.13224</v>
+        <v>1904.80028</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1931.20497</v>
+        <v>2173.07996</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1379.52969</v>
+        <v>1882.74312</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1745.80878</v>
+        <v>2021.82093</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2139.79383</v>
+        <v>2447.16877</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1878.91837</v>
+        <v>1504.6837</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3473.30179</v>
+        <v>4280.26295</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4033.82323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3731.00638</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>8132.431</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>36475.51579999999</v>
+        <v>38303.37486</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>37384.00858</v>
+        <v>41371.72106</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>46327.00799000001</v>
+        <v>49418.04564</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>47720.31920000001</v>
+        <v>50153.64006000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>74413.62475</v>
+        <v>78080.54687999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>76498.4838</v>
+        <v>82308.39159</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>73280.37665000001</v>
+        <v>78169.84009</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>66750.12594</v>
+        <v>71754.66337000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>67711.17994</v>
+        <v>78153.89238999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>142465.17926</v>
+        <v>145163.14298</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>168178.36127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>172739.72068</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>179402.782</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>117546.575</v>
+        <v>138850.4679</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>127513.59405</v>
+        <v>140722.06725</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>148197.45328</v>
+        <v>151106.29148</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>157266.9608</v>
+        <v>173709.75256</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>214064.0833</v>
+        <v>224998.27994</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>231947.8079</v>
+        <v>239028.38124</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>244082.69247</v>
+        <v>255772.11073</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>254883.62407</v>
+        <v>268792.06653</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>250239.71921</v>
+        <v>266856.51744</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>387999.66811</v>
+        <v>402829.13877</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>436369.29357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>446110.36055</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>490401.255</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>75009.03795999999</v>
+        <v>62013.94942000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>93270.62851</v>
+        <v>92857.76139</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>116377.77867</v>
+        <v>126605.86015</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>95843.12611</v>
+        <v>93108.09215</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>149531.86378</v>
+        <v>163401.64312</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>167663.74254</v>
+        <v>176926.5209</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>196784.70037</v>
+        <v>209788.28527</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>165935.36093</v>
+        <v>195488.0113</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>178372.17359</v>
+        <v>221436.03526</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>429297.24521</v>
+        <v>438397.2973</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>429253.51426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>451729.32397</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>642282.182</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>25125.8193</v>
+        <v>52921.10658</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>17082.89874</v>
+        <v>22199.51202</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>26317.86081</v>
+        <v>31639.18277</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>18641.04769</v>
+        <v>28452.67481</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>41746.70633</v>
+        <v>146034.198</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>34282.47144</v>
+        <v>43471.07381</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>53706.15029</v>
+        <v>62561.15447000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>51129.58463</v>
+        <v>61793.85676</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>43160.52676000001</v>
+        <v>51231.82623</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>348592.16874</v>
+        <v>353168.76461</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>155240.56432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>169029.83169</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>279404.423</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>3431.68776</v>
+        <v>1684.14078</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3.47527</v>
+        <v>962.4258299999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>524.63579</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>0.3</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>4.48</v>
+        <v>5804.19595</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>15.52401</v>
@@ -1793,19 +1804,24 @@
         <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>44.63796</v>
+        <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>154.39544</v>
+        <v>5.61025</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>987.28424</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1.5451</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1.18548</v>
@@ -1835,73 +1851,83 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2.637</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2183.246</v>
+        <v>3290.60103</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1642.09773</v>
+        <v>2779.25696</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1672.77963</v>
+        <v>2702.53891</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1871.78181</v>
+        <v>4178.867819999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2991.83151</v>
+        <v>6311.28277</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3881.9224</v>
+        <v>5543.89246</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3792.39542</v>
+        <v>4797.98407</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3974.71259</v>
+        <v>5900.596469999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3946.82243</v>
+        <v>6203.282750000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>13044.03397</v>
+        <v>14436.69981</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>16227.90665</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>16544.02376</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>9403.540000000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>325.70091</v>
+        <v>382.49736</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>109.77338</v>
+        <v>194.06252</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>85.41452000000001</v>
+        <v>78.21452000000001</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>240.05975</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>424.32443</v>
+        <v>528.01801</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>2042.54743</v>
+        <v>2119.29805</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>103.49333</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>2589.23622</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2693.349</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>112.89976</v>
+        <v>213.85392</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>234.64928</v>
+        <v>313.72621</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>928.1130000000001</v>
+        <v>1188.80841</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>103.97735</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1097.7828</v>
+        <v>1303.15429</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>866.50855</v>
+        <v>933.53705</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>2341.442340000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>174.92022</v>
+        <v>1653.86242</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>673.74022</v>
+        <v>544.63998</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>928.75099</v>
+        <v>927.61629</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1002.28137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>936.60433</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1389.75</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>281.70432</v>
+        <v>304.56977</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>121.30078</v>
+        <v>125.53885</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>68.37332000000001</v>
+        <v>80.73932000000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>96.97572</v>
+        <v>95.67979999999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>583.1031700000001</v>
+        <v>85194.35995</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>156.68541</v>
+        <v>166.97289</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>122.26318</v>
+        <v>140.07064</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>97.96955</v>
+        <v>152.4894</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>545.34376</v>
+        <v>283.06198</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1006.24084</v>
+        <v>694.2006700000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1643.84281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1508.55209</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1116.03</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>13140.03659</v>
+        <v>40426.80299</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>11368.22385</v>
+        <v>13249.01859</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>16364.02475</v>
+        <v>20177.23968</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>10270.62688</v>
+        <v>16521.33066</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>26196.60931</v>
+        <v>36074.10750999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>20550.1509</v>
+        <v>25058.86746</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>38559.69351</v>
+        <v>45260.71834000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>28031.31985</v>
+        <v>44092.06990000001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>28618.28746</v>
+        <v>34834.17129</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>297007.53361</v>
+        <v>308356.04402</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>98599.62685000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>118546.72755</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>228632.862</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>330.32308</v>
@@ -2057,31 +2103,36 @@
         <v>167.70224</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>14.91625</v>
+        <v>115.45299</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>97.54519000000001</v>
+        <v>222.57366</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>265.12965</v>
+        <v>300.75668</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>167.5673</v>
+        <v>284.80077</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1537.20257</v>
+        <v>1738.96546</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>1087.03925</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1036.27759</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>630.871</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>7.19504</v>
+        <v>4.482699999999999</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2093,7 +2144,7 @@
         <v>43.79208999999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>1.48138</v>
+        <v>207.57723</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2113,173 +2164,198 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5311.840359999999</v>
+        <v>6282.64947</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3595.11574</v>
+        <v>4567.22035</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>7181.36826</v>
+        <v>6869.21881</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5487.68895</v>
+        <v>6742.8222</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>8693.80399</v>
+        <v>8858.21255</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6754.21649</v>
+        <v>9517.528899999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8688.643030000001</v>
+        <v>9694.1978</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>18570.07055</v>
+        <v>9678.619670000002</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>9156.179990000001</v>
+        <v>9073.921819999998</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>27429.91344</v>
+        <v>24775.53023</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>33103.34693</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>27866.86505</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>35535.384</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>18308.59503</v>
+        <v>32330.80825000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>16154.20442</v>
+        <v>18094.9179</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>17626.77445</v>
+        <v>27459.34676</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>16658.82851</v>
+        <v>22166.27363</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>29811.21814</v>
+        <v>36305.14412</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>28298.33256</v>
+        <v>37154.16939</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>57146.03459</v>
+        <v>51626.85793000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>32836.0453</v>
+        <v>49416.96189</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>36112.93524</v>
+        <v>38987.52568</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>307337.02862</v>
+        <v>321562.49532</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>102179.36315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>114459.05126</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>173343.616</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>469.20278</v>
+        <v>663.88171</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>973.1148199999999</v>
+        <v>971.77233</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>497.11963</v>
+        <v>602.9933000000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1093.61418</v>
+        <v>1077.45293</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>896.3521</v>
+        <v>888.6861700000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1455.78525</v>
+        <v>1456.79995</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>643.3079</v>
+        <v>664.30579</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>647.63534</v>
+        <v>664.6038299999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>669.6460500000001</v>
+        <v>700.96943</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1436.2362</v>
+        <v>1415.53068</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5004.32474</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4991.97592</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1006.98</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2012.51849</v>
+        <v>2362.09804</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1644.90015</v>
+        <v>1679.96712</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1548.17404</v>
+        <v>1815.92969</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1798.98305</v>
+        <v>1554.21901</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2462.50856</v>
+        <v>2679.28023</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2997.92427</v>
+        <v>4747.85602</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>15248.58931</v>
+        <v>5067.88032</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2715.912440000001</v>
+        <v>3669.91595</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5471.47779</v>
+        <v>5476.12971</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>5638.899890000001</v>
+        <v>5584.55007</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4086.34098</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4423.398440000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2444.506</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>486.99953</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>29.96466</v>
+        <v>16.89845</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>76.91154999999999</v>
@@ -2303,55 +2379,65 @@
         <v>0.46495</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>7.60693</v>
+        <v>42.77015</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>10.53049</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>64.387</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>13129.14067</v>
+        <v>26664.11289</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>11873.56702</v>
+        <v>13830.18818</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>13005.2337</v>
+        <v>20840.73075</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>10043.23936</v>
+        <v>16141.04495</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>22951.2795</v>
+        <v>29320.38396</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>22428.0908</v>
+        <v>28314.54756</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>37856.30342</v>
+        <v>41200.60047999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>27139.29588</v>
+        <v>42032.05967999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>27632.17562</v>
+        <v>29455.25411</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>295140.14533</v>
+        <v>309160.2922</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>88259.99273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>100024.4307</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>165082.895</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>312.73359</v>
@@ -2369,28 +2455,33 @@
         <v>215.79892</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>40.70024</v>
+        <v>173.63633</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>69.93621</v>
+        <v>206.14534</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>105.20619</v>
+        <v>150.95721</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>58.7812</v>
+        <v>174.09551</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1411.33406</v>
+        <v>1452.62918</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1161.655</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>901.11091</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>554.247</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>14.11618</v>
@@ -2405,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0</v>
+        <v>17.43363</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
@@ -2423,595 +2514,673 @@
         <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>2.41028</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.9455399999999999</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1883.88379</v>
+        <v>1826.86631</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1609.63122</v>
+        <v>1573.06527</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2325.34091</v>
+        <v>3948.78685</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3233.29224</v>
+        <v>2903.85706</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3281.08135</v>
+        <v>3179.3635</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1364.08924</v>
+        <v>2449.58677</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3185.07579</v>
+        <v>4345.104039999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2227.31215</v>
+        <v>2898.74192</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2280.38963</v>
+        <v>3180.61197</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3702.80621</v>
+        <v>3906.72304</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3654.10893</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4106.65926</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4190.601</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>29396.61964</v>
+        <v>59516.24273000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>19728.38453</v>
+        <v>24892.40793</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>21445.35493</v>
+        <v>28626.36878</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>23538.05998</v>
+        <v>27417.1445</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>36682.27877</v>
+        <v>41514.27024000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>38649.68673</v>
+        <v>45525.62302000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>39844.18559</v>
+        <v>46477.3744</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>39932.48884000001</v>
+        <v>56757.58469999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>38696.01772</v>
+        <v>61540.9066</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>114626.40711</v>
+        <v>121111.97209</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>137065.48833</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>145270.33026</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>124442.857</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>28603.22545</v>
+        <v>57590.29841</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>18855.7837</v>
+        <v>23716.03597</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>20889.72951</v>
+        <v>27466.69469</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>22822.54772</v>
+        <v>26351.11133</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>35541.68839</v>
+        <v>39918.57587000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>37712.10977</v>
+        <v>44035.47812</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>38680.60537</v>
+        <v>44329.43456</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>37822.924</v>
+        <v>54464.31411000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>36980.34214</v>
+        <v>59025.94543</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>107556.96984</v>
+        <v>114265.76703</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>130205.84225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>138364.08052</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>116370.596</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>793.39419</v>
+        <v>1925.94432</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>872.60083</v>
+        <v>1176.37196</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>555.62542</v>
+        <v>1159.67409</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>715.51226</v>
+        <v>1066.03317</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1140.59038</v>
+        <v>1595.69437</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>937.57696</v>
+        <v>1490.1449</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1163.58022</v>
+        <v>2147.93984</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2109.56484</v>
+        <v>2293.27059</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1715.67558</v>
+        <v>2514.96117</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>7069.43727</v>
+        <v>6846.20506</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>6859.64608</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>6906.24974</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>8072.261</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>52429.64259</v>
+        <v>23088.00502</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>74470.93829999999</v>
+        <v>72069.94758000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>103623.5101</v>
+        <v>102159.32738</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>74287.28531000001</v>
+        <v>71977.34883000002</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>124785.0732</v>
+        <v>231616.42676</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>134998.19469</v>
+        <v>137717.8023</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>153500.63048</v>
+        <v>174245.20741</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>144296.41142</v>
+        <v>151107.32147</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>146723.74739</v>
+        <v>172139.42921</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>355925.97822</v>
+        <v>348891.5945</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>345249.2271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>361029.77414</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>623900.132</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>12279.64452</v>
+        <v>15665.00209</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>15385.10433</v>
+        <v>10778.07263</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8721.174370000001</v>
+        <v>9134.574500000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>13025.51931</v>
+        <v>11786.46189</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>35130.02864</v>
+        <v>25011.36286</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>15685.4438</v>
+        <v>17418.1665</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>25375.71617</v>
+        <v>25279.50072</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>31036.1067</v>
+        <v>47490.45787</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>22544.73544</v>
+        <v>44030.33772</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>36956.92836</v>
+        <v>36594.7988</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>52367.01585</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>51595.62657</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>47922.526</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>82.20617999999999</v>
+        <v>83.99339000000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>360.89602</v>
+        <v>199.4798</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>865.9010499999999</v>
+        <v>687.4092099999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>57.19785</v>
+        <v>56.35791</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>70.66290000000001</v>
+        <v>76.38290000000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>238.85036</v>
+        <v>224.22355</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1256.3748</v>
+        <v>86.15423999999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1171.83781</v>
+        <v>1179.94573</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>136.63378</v>
+        <v>218.2299</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>493.6885</v>
+        <v>129.24838</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>612.53822</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>536.28822</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>187.271</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>12197.43834</v>
+        <v>15581.0087</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>15024.20831</v>
+        <v>10578.59283</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>7855.27332</v>
+        <v>8447.165290000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>12968.32146</v>
+        <v>11730.10398</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>35059.36574</v>
+        <v>24934.97996</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>15446.59344</v>
+        <v>17193.94295</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>24119.34137</v>
+        <v>25193.34648</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>29864.26889</v>
+        <v>46310.51213999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>22408.10166</v>
+        <v>43812.10782</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>36463.23986</v>
+        <v>36465.55042</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>51754.47763</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>51059.33835</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>47735.255</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>12031.56099</v>
+        <v>18693.15458</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>11363.42286</v>
+        <v>13370.00605</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>71847.28804</v>
+        <v>79448.95558000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>13264.48451</v>
+        <v>13915.5181</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>17350.16845</v>
+        <v>19418.30762</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>57377.19147</v>
+        <v>55357.40356</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>18095.47483</v>
+        <v>17222.71919</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>63137.09625</v>
+        <v>70048.54486999998</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>15099.44204</v>
+        <v>31240.09093</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>103517.90056</v>
+        <v>120018.05768</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>32486.09461</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>32380.62045</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>36748.432</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>483.95979</v>
+        <v>2057.85143</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>427.61793</v>
+        <v>1658.7343</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>488.60816</v>
+        <v>495.63179</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2214.30187</v>
+        <v>3286.04863</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>714.4442899999999</v>
+        <v>1383.28022</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1108.005</v>
+        <v>1624.43018</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1097.28264</v>
+        <v>816.68661</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2583.66033</v>
+        <v>1675.57962</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2215.33759</v>
+        <v>3520.14108</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1086.27443</v>
+        <v>5690.16462</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2651.56083</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2650.18659</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2704.743</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>780.4599599999999</v>
+        <v>3382.37182</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>908.33237</v>
+        <v>1001.16864</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>93.51497000000001</v>
+        <v>195.33698</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>837.73786</v>
+        <v>812.85946</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>264.60458</v>
+        <v>370.42305</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>317.79818</v>
+        <v>442.77136</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1488.33617</v>
+        <v>1459.74323</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>975.16832</v>
+        <v>824.6454399999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>314.38837</v>
+        <v>319.71246</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3144.27098</v>
+        <v>3136.13996</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1533.76534</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1575.91986</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1165.887</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>10767.14124</v>
+        <v>13252.93133</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>10027.47256</v>
+        <v>10710.10311</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>71265.16490999999</v>
+        <v>78757.98681</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>10212.44478</v>
+        <v>9816.61001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>16371.11958</v>
+        <v>17664.60435</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>55951.38829</v>
+        <v>53290.20202</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>15509.85602</v>
+        <v>14946.28935</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>59578.2676</v>
+        <v>67548.31981</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>12569.71608</v>
+        <v>27400.23739</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>99287.35515</v>
+        <v>111191.7531</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>28300.76844</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>28154.514</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>32877.802</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>52677.72612</v>
+        <v>20059.85253</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>78492.61976999999</v>
+        <v>69478.01415999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>40497.39643</v>
+        <v>31844.9463</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>74048.32011</v>
+        <v>69848.29262000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>142564.93339</v>
+        <v>237209.482</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>93306.44701999999</v>
+        <v>99778.56524</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>160780.87182</v>
+        <v>182301.98894</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>112195.42187</v>
+        <v>128549.23447</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>154169.04079</v>
+        <v>184929.676</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>289365.00602</v>
+        <v>265468.33562</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>365130.14834</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>380244.78026</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>635074.226</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>12994.72795</v>
+        <v>13943.23247</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>16486.41993</v>
+        <v>16715.82282</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>20146.50401</v>
+        <v>21604.95939</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>18012.718</v>
+        <v>19064.55764</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>28805.27342</v>
+        <v>36364.40491</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>30415.55935</v>
+        <v>31723.77977</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>37403.58467</v>
+        <v>38757.11404</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>31732.75529</v>
+        <v>35535.27954</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>32288.25714</v>
+        <v>37223.67117</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>78366.27741</v>
+        <v>78450.67398000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>70219.42539</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>72771.57793000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>122549.914</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>39682.99817</v>
+        <v>6116.620059999998</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>62006.19983999999</v>
+        <v>52762.19134</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>20350.89242</v>
+        <v>10239.98691</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>56035.60211</v>
+        <v>50783.73497999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>113759.65997</v>
+        <v>200845.07709</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>62890.88767</v>
+        <v>68054.78546999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>123377.28715</v>
+        <v>143544.8749</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>80462.66658</v>
+        <v>93013.95492999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>121880.78365</v>
+        <v>147706.00483</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>210998.72861</v>
+        <v>187017.66164</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>294910.72295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>307473.20233</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>512524.312</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>828</v>
+        <v>781</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>855</v>
+        <v>762</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>882</v>
+        <v>794</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>882</v>
+        <v>795</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1038</v>
+        <v>912</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1037</v>
+        <v>914</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1077</v>
+        <v>930</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1079</v>
+        <v>917</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1090</v>
+        <v>929</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>905</v>
+        <v>819</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>808</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>